--- a/THE WAVE GRUPO BRAVE OCEAN PROJETO MAVIE/Plano Orçamentário.xlsx
+++ b/THE WAVE GRUPO BRAVE OCEAN PROJETO MAVIE/Plano Orçamentário.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savio.ferreira\Desktop\THE WAVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savio.ferreira\Desktop\THE WAVE GRUPO BRAVE OCEAN PROJETO MAVIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F34A20-7894-4F68-98F7-CBC4E6DB5264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338B32C-71D1-4E9C-AAB8-9E03A23079E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="889" activeTab="6" xr2:uid="{082A9B7D-41D5-46A1-B732-4AB830D0EDB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="889" activeTab="7" xr2:uid="{082A9B7D-41D5-46A1-B732-4AB830D0EDB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,15 @@
     <sheet name="1º ANO" sheetId="5" r:id="rId5"/>
     <sheet name="2º ANO" sheetId="7" r:id="rId6"/>
     <sheet name="RESUMO" sheetId="8" r:id="rId7"/>
-    <sheet name="memoria_calculo" sheetId="6" r:id="rId8"/>
+    <sheet name="GRAFICO" sheetId="10" r:id="rId8"/>
+    <sheet name="memoria_calculo" sheetId="6" r:id="rId9"/>
+    <sheet name="base_calculo_graf" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">RESUMO!$C$8:$C$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">RESUMO!$D$8:$D$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">RESUMO!$C$8:$C$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">RESUMO!$D$8:$D$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1º ANO'!$A$1:$N$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2º ANO'!$A$1:$N$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Dados Gerais'!$B$2:$G$25</definedName>
@@ -186,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
   <si>
     <t>Plano Orçamentário</t>
   </si>
@@ -1013,7 +1019,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1219,6 +1225,48 @@
     <xf numFmtId="44" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1249,6 +1297,87 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,143 +1387,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1455,6 +1464,3756 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>1º ANO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>base_calculo_graf!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acumulado Custos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>base_calculo_graf!$C$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>base_calculo_graf!$C$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>218611.28999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435611.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>652611.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>914611.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1176611.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1438611.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700611.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1962611.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2224611.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2486611.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2748611.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3010611.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1CF-4F00-8DFB-14E319D74868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>base_calculo_graf!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acumulado Vendas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>base_calculo_graf!$C$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>base_calculo_graf!$C$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>395999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>821998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1277997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1CF-4F00-8DFB-14E319D74868}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1569866975"/>
+        <c:axId val="569794112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1569866975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569794112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="569794112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1569866975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>2º ANO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>base_calculo_graf!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acumulado Custos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>base_calculo_graf!$C$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>base_calculo_graf!$C$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>192611.28999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383611.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574611.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>765611.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>956611.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1147611.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1338611.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1529611.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1720611.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1911611.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2102611.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2293611.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C93C-4246-BD2E-3899F864464D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>base_calculo_graf!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acumulado Vendas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C93C-4246-BD2E-3899F864464D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>base_calculo_graf!$C$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>base_calculo_graf!$C$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>125999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>281998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>683996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>929995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1205994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1511993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1847992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2213991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2609990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3035989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3491988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C93C-4246-BD2E-3899F864464D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1642717231"/>
+        <c:axId val="697295104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1642717231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697295104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="697295104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1642717231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" b="1"/>
+              <a:t>ORÇ x REAL - 1º ANO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C112-44A0-9C19-B88BDF0A2E2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C112-44A0-9C19-B88BDF0A2E2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESUMO!$C$8:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Vendas R$</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orç Ano R$</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESUMO!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1277997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3010611.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C112-44A0-9C19-B88BDF0A2E2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ORÇ x REAL - 2º ANO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6134-4652-8BD8-F9E8F645A262}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6134-4652-8BD8-F9E8F645A262}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESUMO!$C$14:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Vendas R$</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orç Ano R$</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESUMO!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3491988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2293611.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6134-4652-8BD8-F9E8F645A262}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1787,6 +5546,476 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>554951</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C6DC8C-95DA-47A1-8730-291BD27313C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>497800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AEE276-2CFE-4AA9-8DED-CCFCC807AFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100EA510-DB62-4B51-94E0-2020802990AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="RESUMO!D10">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312924D6-3E64-1D46-0CEC-1C4AA88D08F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3994150" y="3943350"/>
+          <a:ext cx="1212850" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5D6CB10F-D4C9-474C-94DF-C8731B70AB4A}" type="TxLink">
+            <a:rPr lang="en-US" sz="1050" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>-R$ 1.732.614,29 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1050" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63031B62-3DA2-4032-BE2B-BA4776F6DDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3987800" y="3606800"/>
+          <a:ext cx="1212850" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RESULTADO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295F9CB9-5049-4E08-9F46-808E962AF5B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="RESUMO!D16">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo: Cantos Arredondados 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D727267B-E404-45C5-955F-8951DDFFDD63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9442450" y="3943350"/>
+          <a:ext cx="1212850" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{8A52A611-C66F-4479-937C-8B31FD3A6561}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 1.198.376,71 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1050" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Retângulo: Cantos Arredondados 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EA7CF3-9F79-4E4D-9C1D-3A4E9CB37E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9436100" y="3606800"/>
+          <a:ext cx="1212850" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RESULTADO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2097,16 +6326,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="46" x14ac:dyDescent="1">
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="3:11" ht="26" x14ac:dyDescent="0.6">
       <c r="C4" s="1" t="s">
@@ -2182,6 +6411,322 @@
     <oddHeader>&amp;C&amp;G</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAAC967-FABC-4608-A4BC-B8AD31A9EEF3}">
+  <dimension ref="B2:N9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.6328125" style="151" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="151" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.7265625" style="151" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="15.26953125" style="151" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="151"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="153">
+        <f>'1º ANO'!B14</f>
+        <v>218611.28999999998</v>
+      </c>
+      <c r="D3" s="153">
+        <f>'1º ANO'!C14</f>
+        <v>435611.29</v>
+      </c>
+      <c r="E3" s="153">
+        <f>'1º ANO'!D14</f>
+        <v>652611.29</v>
+      </c>
+      <c r="F3" s="153">
+        <f>'1º ANO'!E14</f>
+        <v>914611.29</v>
+      </c>
+      <c r="G3" s="153">
+        <f>'1º ANO'!F14</f>
+        <v>1176611.29</v>
+      </c>
+      <c r="H3" s="153">
+        <f>'1º ANO'!G14</f>
+        <v>1438611.29</v>
+      </c>
+      <c r="I3" s="153">
+        <f>'1º ANO'!H14</f>
+        <v>1700611.29</v>
+      </c>
+      <c r="J3" s="153">
+        <f>'1º ANO'!I14</f>
+        <v>1962611.29</v>
+      </c>
+      <c r="K3" s="153">
+        <f>'1º ANO'!J14</f>
+        <v>2224611.29</v>
+      </c>
+      <c r="L3" s="153">
+        <f>'1º ANO'!K14</f>
+        <v>2486611.29</v>
+      </c>
+      <c r="M3" s="153">
+        <f>'1º ANO'!L14</f>
+        <v>2748611.29</v>
+      </c>
+      <c r="N3" s="153">
+        <f>'1º ANO'!M14</f>
+        <v>3010611.29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="154">
+        <f>'1º ANO'!B21</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="154">
+        <f>'1º ANO'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="154">
+        <f>'1º ANO'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="154">
+        <f>'1º ANO'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="154">
+        <f>'1º ANO'!F21</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="154">
+        <f>'1º ANO'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="154">
+        <f>'1º ANO'!H21</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="154">
+        <f>'1º ANO'!I21</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="154">
+        <f>'1º ANO'!J21</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="154">
+        <f>'1º ANO'!K21</f>
+        <v>395999</v>
+      </c>
+      <c r="M4" s="154">
+        <f>'1º ANO'!L21</f>
+        <v>821998</v>
+      </c>
+      <c r="N4" s="154">
+        <f>'1º ANO'!M21</f>
+        <v>1277997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="153">
+        <f>'2º ANO'!B14</f>
+        <v>192611.28999999998</v>
+      </c>
+      <c r="D8" s="153">
+        <f>'2º ANO'!C14</f>
+        <v>383611.29</v>
+      </c>
+      <c r="E8" s="153">
+        <f>'2º ANO'!D14</f>
+        <v>574611.29</v>
+      </c>
+      <c r="F8" s="153">
+        <f>'2º ANO'!E14</f>
+        <v>765611.29</v>
+      </c>
+      <c r="G8" s="153">
+        <f>'2º ANO'!F14</f>
+        <v>956611.29</v>
+      </c>
+      <c r="H8" s="153">
+        <f>'2º ANO'!G14</f>
+        <v>1147611.29</v>
+      </c>
+      <c r="I8" s="153">
+        <f>'2º ANO'!H14</f>
+        <v>1338611.29</v>
+      </c>
+      <c r="J8" s="153">
+        <f>'2º ANO'!I14</f>
+        <v>1529611.29</v>
+      </c>
+      <c r="K8" s="153">
+        <f>'2º ANO'!J14</f>
+        <v>1720611.29</v>
+      </c>
+      <c r="L8" s="153">
+        <f>'2º ANO'!K14</f>
+        <v>1911611.29</v>
+      </c>
+      <c r="M8" s="153">
+        <f>'2º ANO'!L14</f>
+        <v>2102611.29</v>
+      </c>
+      <c r="N8" s="153">
+        <f>'2º ANO'!M14</f>
+        <v>2293611.29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="154">
+        <f>'2º ANO'!B21</f>
+        <v>125999</v>
+      </c>
+      <c r="D9" s="154">
+        <f>'2º ANO'!C21</f>
+        <v>281998</v>
+      </c>
+      <c r="E9" s="154">
+        <f>'2º ANO'!D21</f>
+        <v>467997</v>
+      </c>
+      <c r="F9" s="154">
+        <f>'2º ANO'!E21</f>
+        <v>683996</v>
+      </c>
+      <c r="G9" s="154">
+        <f>'2º ANO'!F21</f>
+        <v>929995</v>
+      </c>
+      <c r="H9" s="154">
+        <f>'2º ANO'!G21</f>
+        <v>1205994</v>
+      </c>
+      <c r="I9" s="154">
+        <f>'2º ANO'!H21</f>
+        <v>1511993</v>
+      </c>
+      <c r="J9" s="154">
+        <f>'2º ANO'!I21</f>
+        <v>1847992</v>
+      </c>
+      <c r="K9" s="154">
+        <f>'2º ANO'!J21</f>
+        <v>2213991</v>
+      </c>
+      <c r="L9" s="154">
+        <f>'2º ANO'!K21</f>
+        <v>2609990</v>
+      </c>
+      <c r="M9" s="154">
+        <f>'2º ANO'!L21</f>
+        <v>3035989</v>
+      </c>
+      <c r="N9" s="154">
+        <f>'2º ANO'!M21</f>
+        <v>3491988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -2207,14 +6752,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
     </row>
     <row r="7" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
@@ -2272,10 +6817,10 @@
       <c r="D12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="102"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
@@ -2288,10 +6833,10 @@
       <c r="D13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
@@ -2308,13 +6853,13 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
@@ -2376,10 +6921,10 @@
       <c r="G19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="97"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="33">
         <f>SUM(D18:D19)</f>
         <v>447018.54833333334</v>
@@ -2444,14 +6989,14 @@
       <c r="I27" s="38"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="41"/>
       <c r="F28" s="40"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="42"/>
       <c r="F29" s="40"/>
     </row>
@@ -2497,14 +7042,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -2518,37 +7063,37 @@
       <c r="B7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H8"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
       <c r="H9"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="26" t="s">
         <v>31</v>
       </c>
@@ -2561,11 +7106,11 @@
       <c r="B11" s="30">
         <v>8</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="48">
         <v>0</v>
       </c>
@@ -2578,11 +7123,11 @@
       <c r="B12" s="50">
         <v>6</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="51">
         <v>0</v>
       </c>
@@ -2595,11 +7140,11 @@
       <c r="B13" s="50">
         <v>4</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="48">
         <v>0</v>
       </c>
@@ -2611,13 +7156,13 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="53">
         <f>SUM(G11:G13)</f>
         <v>162000</v>
@@ -2631,22 +7176,22 @@
       <c r="H15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="55" t="s">
         <v>39</v>
       </c>
@@ -2659,11 +7204,11 @@
       <c r="H17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="57">
         <v>12</v>
       </c>
@@ -2677,11 +7222,11 @@
       <c r="H18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="57">
         <v>12</v>
       </c>
@@ -2695,11 +7240,11 @@
       <c r="H19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="57">
         <v>1</v>
       </c>
@@ -2713,11 +7258,11 @@
       <c r="H20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="57">
         <v>1</v>
       </c>
@@ -2731,11 +7276,11 @@
       <c r="H21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
       <c r="E22" s="57">
         <v>9</v>
       </c>
@@ -2749,11 +7294,11 @@
       <c r="H22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="57">
         <v>12</v>
       </c>
@@ -2767,9 +7312,9 @@
       <c r="H23"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="57"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58">
@@ -2779,9 +7324,9 @@
       <c r="H24"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="57"/>
       <c r="F25" s="58"/>
       <c r="G25" s="58">
@@ -2791,12 +7336,12 @@
       <c r="H25"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="61">
         <f>SUM(F18:F25)</f>
         <v>101611.29000000001</v>
@@ -2808,21 +7353,21 @@
       <c r="H26" s="62"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
       <c r="E29" s="55" t="s">
         <v>39</v>
       </c>
@@ -2834,11 +7379,11 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="57">
         <v>12</v>
       </c>
@@ -2851,9 +7396,9 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="64"/>
       <c r="F31" s="63">
         <v>0</v>
@@ -2864,12 +7409,12 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
       <c r="F32" s="65">
         <f>SUM(F30:F31)</f>
         <v>1500</v>
@@ -2888,21 +7433,21 @@
       <c r="G33" s="69"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="55" t="s">
         <v>39</v>
       </c>
@@ -2914,11 +7459,11 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="57">
         <v>12</v>
       </c>
@@ -2931,12 +7476,12 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="119"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="140"/>
       <c r="F37" s="65">
         <f>SUM(F36:F36)</f>
         <v>1000</v>
@@ -2950,26 +7495,26 @@
       <c r="G38"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="107"/>
-      <c r="F39" s="120" t="s">
+      <c r="C39" s="147"/>
+      <c r="D39" s="148"/>
+      <c r="F39" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="121"/>
+      <c r="G39" s="150"/>
       <c r="H39" s="70" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="105">
+      <c r="B40" s="146">
         <f>SUM(B11:B13)</f>
         <v>18</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="148"/>
       <c r="F40" s="71" t="s">
         <v>54</v>
       </c>
@@ -3027,6 +7572,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="C7:G7"/>
@@ -3039,25 +7603,6 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3092,14 +7637,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -3113,37 +7658,37 @@
       <c r="B7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H8"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
       <c r="H9"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="26" t="s">
         <v>31</v>
       </c>
@@ -3156,11 +7701,11 @@
       <c r="B11" s="30">
         <v>5</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="48">
         <v>0</v>
       </c>
@@ -3173,11 +7718,11 @@
       <c r="B12" s="50">
         <v>6</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="51">
         <v>0</v>
       </c>
@@ -3190,11 +7735,11 @@
       <c r="B13" s="50">
         <v>4</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="48">
         <v>0</v>
       </c>
@@ -3206,13 +7751,13 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="53">
         <f>SUM(G11:G13)</f>
         <v>126000</v>
@@ -3226,22 +7771,22 @@
       <c r="H15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="55" t="s">
         <v>39</v>
       </c>
@@ -3254,11 +7799,11 @@
       <c r="H17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="57">
         <v>12</v>
       </c>
@@ -3272,11 +7817,11 @@
       <c r="H18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="57">
         <v>12</v>
       </c>
@@ -3290,11 +7835,11 @@
       <c r="H19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="57">
         <v>1</v>
       </c>
@@ -3308,11 +7853,11 @@
       <c r="H20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="57">
         <v>1</v>
       </c>
@@ -3326,11 +7871,11 @@
       <c r="H21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
       <c r="E22" s="57">
         <v>12</v>
       </c>
@@ -3344,11 +7889,11 @@
       <c r="H22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="57">
         <v>12</v>
       </c>
@@ -3362,9 +7907,9 @@
       <c r="H23"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="57"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58">
@@ -3374,9 +7919,9 @@
       <c r="H24"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="57"/>
       <c r="F25" s="58"/>
       <c r="G25" s="58">
@@ -3386,12 +7931,12 @@
       <c r="H25"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="61">
         <f>SUM(F18:F25)</f>
         <v>66611.290000000008</v>
@@ -3403,21 +7948,21 @@
       <c r="H26" s="62"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
       <c r="E29" s="55" t="s">
         <v>39</v>
       </c>
@@ -3429,11 +7974,11 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="57">
         <v>12</v>
       </c>
@@ -3446,9 +7991,9 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="64"/>
       <c r="F31" s="63">
         <v>0</v>
@@ -3459,12 +8004,12 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
       <c r="F32" s="65">
         <f>SUM(F30:F31)</f>
         <v>1500</v>
@@ -3483,21 +8028,21 @@
       <c r="G33" s="69"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="55" t="s">
         <v>39</v>
       </c>
@@ -3509,11 +8054,11 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="57">
         <v>12</v>
       </c>
@@ -3526,12 +8071,12 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="119"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="140"/>
       <c r="F37" s="65">
         <f>SUM(F36:F36)</f>
         <v>1000</v>
@@ -3545,26 +8090,26 @@
       <c r="G38"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="107"/>
-      <c r="F39" s="120" t="s">
+      <c r="C39" s="147"/>
+      <c r="D39" s="148"/>
+      <c r="F39" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="121"/>
+      <c r="G39" s="150"/>
       <c r="H39" s="70" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="105">
+      <c r="B40" s="146">
         <f>SUM(B11:B13)</f>
         <v>15</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="148"/>
       <c r="F40" s="71" t="s">
         <v>54</v>
       </c>
@@ -3622,6 +8167,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="C7:G7"/>
@@ -3634,25 +8198,6 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3665,8 +8210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4001A31-953D-4EF2-B290-FF1966BFAD45}">
   <dimension ref="A2:O28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4489,8 +9034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E498F5FE-5792-4ABB-883E-919285EDA288}">
   <dimension ref="A2:O28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5317,8 +9862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7DBDF9-0303-4C35-9713-22A57B2AC4C4}">
   <dimension ref="B6:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5335,171 +9880,130 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
     </row>
     <row r="7" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="141"/>
-      <c r="C7" s="142" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="153" t="s">
+      <c r="I7" s="108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="141"/>
-      <c r="C8" s="142" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="86">
         <f>'1º ANO'!M21</f>
         <v>1277997</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="141" t="s">
+      <c r="G8" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144" t="s">
+      <c r="I8" s="100" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="141"/>
-      <c r="C9" s="142" t="s">
+      <c r="B9" s="99"/>
+      <c r="C9" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="145">
+      <c r="D9" s="86">
         <f>'1º ANO'!M14</f>
         <v>3010611.29</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="151">
+      <c r="G9" s="106">
         <v>2224611.29</v>
       </c>
-      <c r="H9" s="143"/>
-      <c r="I9" s="146">
+      <c r="I9" s="101">
         <f>'2º ANO'!K21</f>
         <v>2609990</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="141"/>
-      <c r="C10" s="142" t="s">
+      <c r="B10" s="99"/>
+      <c r="C10" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="86">
         <f>D8-D9</f>
         <v>-1732614.29</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="141"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
+      <c r="B11" s="99"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="144"/>
+      <c r="B12" s="99"/>
+      <c r="I12" s="100"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="141"/>
-      <c r="C13" s="142" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="141"/>
-      <c r="C14" s="142" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="145">
+      <c r="D14" s="86">
         <f>'2º ANO'!M21</f>
         <v>3491988</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="144"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="142" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="145">
+      <c r="D15" s="86">
         <f>'2º ANO'!M14</f>
         <v>2293611.29</v>
       </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="141"/>
-      <c r="C16" s="142" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="145">
+      <c r="D16" s="86">
         <f>D14-D15</f>
         <v>1198376.71</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:9" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="147"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D10">
@@ -5520,6 +10024,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778B550-1F76-4E74-B93F-C76AD0375D08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="151"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C689264-C39C-4314-B4D4-1CBC32CC1CB8}">
   <dimension ref="A3:J21"/>
   <sheetViews>
